--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\stats_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56348915-AFED-445A-863A-4539540A7F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB26A73-B4B2-42BD-8CB9-AB679AE3B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="3030" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CAGE#</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Replicate</t>
+  </si>
+  <si>
+    <t>Guide_Name</t>
   </si>
 </sst>
 </file>
@@ -428,19 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,92 +456,95 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1725,19 +1733,19 @@
           <x14:formula1>
             <xm:f>dont_touch!$A$2:$A$251</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H250</xm:sqref>
+          <xm:sqref>I3:I250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{958AA415-93E0-42B7-9FF1-8B8BF0D7ED39}">
           <x14:formula1>
             <xm:f>dont_touch!$A$2:$A$251</xm:f>
           </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{42B4B9C9-3C60-48CF-8AD5-C99FA8C92A97}">
           <x14:formula1>
             <xm:f>dont_touch!$C$2:$C$251</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I251</xm:sqref>
+          <xm:sqref>J2:J251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\stats_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB26A73-B4B2-42BD-8CB9-AB679AE3B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573982E6-EBE5-4D4F-B11F-9273BE1A698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="3030" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="dont_touch" sheetId="2" r:id="rId2"/>
+    <sheet name="time_plot" sheetId="4" r:id="rId2"/>
+    <sheet name="dont_touch" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>CAGE#</t>
   </si>
@@ -48,6 +62,24 @@
   </si>
   <si>
     <t>Guide_Name</t>
+  </si>
+  <si>
+    <t>Total-Indel</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 21</t>
   </si>
 </sst>
 </file>
@@ -434,23 +466,23 @@
   <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1754,15 +1786,2350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F40948-8488-4A33-ABE9-CB0E2F3FF8E9}">
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">SUM(H3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="1">SUM(H67:I67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="2">SUM(H131:I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J251" si="3">SUM(H195:I195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B82580C-6819-4D70-A504-0ABCA6784148}">
+          <x14:formula1>
+            <xm:f>dont_touch!$I$1:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F251</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
+  <dimension ref="I1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573982E6-EBE5-4D4F-B11F-9273BE1A698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F2C49-EAE0-4CBA-A293-C89B5D6522FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +479,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>

--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phall3\Desktop\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F2C49-EAE0-4CBA-A293-C89B5D6522FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D436B38-3848-4639-9DCA-426E87D47828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CAGE#</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Day 21</t>
+  </si>
+  <si>
+    <t>Guide</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>

--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phall3\Desktop\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phall3\Desktop\big_fit_fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D436B38-3848-4639-9DCA-426E87D47828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F314138-5A45-4E17-B234-E3815B72F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>CAGE#</t>
   </si>
@@ -84,6 +84,39 @@
   <si>
     <t>Guide</t>
   </si>
+  <si>
+    <t>Graph_Group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,16 +183,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -466,10 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +526,11 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,78 +558,81 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1763,7 +1816,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7DE791D-F46E-4FEE-8974-607610808501}">
           <x14:formula1>
             <xm:f>dont_touch!$A$2:$A$251</xm:f>
@@ -1781,6 +1834,12 @@
             <xm:f>dont_touch!$C$2:$C$251</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J251</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC916597-D4F6-407D-A9C2-E6DD32BB0EBF}">
+          <x14:formula1>
+            <xm:f>dont_touch!$J$1:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4104,32 +4163,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="I1:I4"/>
+  <dimension ref="I1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phall3\Desktop\big_fit_fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F314138-5A45-4E17-B234-E3815B72F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C9CD6-B41F-4F7D-A2EF-E4C9D194BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>CAGE#</t>
   </si>
@@ -116,6 +116,132 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>ZZ</t>
   </si>
 </sst>
 </file>
@@ -517,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,9 +1961,9 @@
           </x14:formula1>
           <xm:sqref>J2:J251</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC916597-D4F6-407D-A9C2-E6DD32BB0EBF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEB25465-49D9-4200-914A-67B26D7EA97D}">
           <x14:formula1>
-            <xm:f>dont_touch!$J$1:$J$10</xm:f>
+            <xm:f>dont_touch!$J$1:$J$52</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K251</xm:sqref>
         </x14:dataValidation>
@@ -4163,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="I1:J10"/>
+  <dimension ref="I1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,6 +4359,216 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/big_fit/template.xlsx
+++ b/big_fit/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C9CD6-B41F-4F7D-A2EF-E4C9D194BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455B98DB-B020-4526-9F9B-49A6FD305E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>CAGE#</t>
   </si>
@@ -55,193 +55,214 @@
     <t>Gene</t>
   </si>
   <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Guide_Name</t>
+  </si>
+  <si>
+    <t>Total-Indel</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Graph_Group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>Init/Final</t>
+  </si>
+  <si>
+    <t>Rep Number</t>
+  </si>
+  <si>
+    <t>Rep1</t>
+  </si>
+  <si>
+    <t>Rep2</t>
+  </si>
+  <si>
+    <t>Rep3</t>
+  </si>
+  <si>
     <t>Comparison_Group</t>
-  </si>
-  <si>
-    <t>Replicate</t>
-  </si>
-  <si>
-    <t>Guide_Name</t>
-  </si>
-  <si>
-    <t>Total-Indel</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>Day 14</t>
-  </si>
-  <si>
-    <t>Day 21</t>
-  </si>
-  <si>
-    <t>Guide</t>
-  </si>
-  <si>
-    <t>Graph_Group</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>UU</t>
-  </si>
-  <si>
-    <t>VV</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
-    <t>ZZ</t>
   </si>
 </sst>
 </file>
@@ -639,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K251"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,11 +673,13 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -679,1293 +702,3293 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>IF(I2&lt;&gt;"",_xlfn.CONCAT(B2,"_",E2,"_",I2),"")</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(K2&lt;&gt;"",_xlfn.CONCAT(J2,"_",K2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),"")</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(K3&lt;&gt;"",_xlfn.CONCAT(J3,"_",K3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="2">IF(I67&lt;&gt;"",_xlfn.CONCAT(B67,"_",E67,"_",I67),"")</f>
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L130" si="3">IF(K67&lt;&gt;"",_xlfn.CONCAT(J67,"_",K67),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J109" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J110" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J111" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J121" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J194" si="4">IF(I131&lt;&gt;"",_xlfn.CONCAT(B131,"_",E131,"_",I131),"")</f>
+        <v/>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" ref="L131:L194" si="5">IF(K131&lt;&gt;"",_xlfn.CONCAT(J131,"_",K131),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J141" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J144" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J145" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J146" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J147" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J148" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J149" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J150" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J151" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J152" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J153" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J154" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J155" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J156" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J157" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J158" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J159" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J161" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J162" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J163" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J164" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J165" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J166" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J167" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J168" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J169" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J170" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J171" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J172" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J173" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J174" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J175" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J176" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L176" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J177" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J178" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L178" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J179" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L179" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J180" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L180" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J181" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L181" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J182" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L182" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J183" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L183" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J184" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L184" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J185" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J186" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L186" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J187" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L187" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J188" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L188" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J189" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J190" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L190" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J191" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J192" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L192" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J193" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L193" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J194" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J195" t="str">
+        <f t="shared" ref="J195:J251" si="6">IF(I195&lt;&gt;"",_xlfn.CONCAT(B195,"_",E195,"_",I195),"")</f>
+        <v/>
+      </c>
+      <c r="L195" t="str">
+        <f t="shared" ref="L195:L251" si="7">IF(K195&lt;&gt;"",_xlfn.CONCAT(J195,"_",K195),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J196" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L196" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J197" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L197" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J198" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J199" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L199" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J200" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J201" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J202" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J203" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J204" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J205" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J206" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J207" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J208" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J209" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J210" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J211" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L211" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J212" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J213" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J214" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J215" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J216" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J217" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L217" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J218" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J219" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L219" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J220" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J221" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J222" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J223" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J224" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J225" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J226" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J227" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J228" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J229" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J230" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J231" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J232" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J233" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L233" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J234" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L234" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J235" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J236" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J237" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J238" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J239" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J240" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J241" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J242" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J243" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J244" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L244" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J245" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L245" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J246" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J247" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L247" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J248" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L248" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J249" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L249" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J250" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L250" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
+      </c>
+      <c r="J251" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L251" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7DE791D-F46E-4FEE-8974-607610808501}">
-          <x14:formula1>
-            <xm:f>dont_touch!$A$2:$A$251</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I250</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{958AA415-93E0-42B7-9FF1-8B8BF0D7ED39}">
-          <x14:formula1>
-            <xm:f>dont_touch!$A$2:$A$251</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{42B4B9C9-3C60-48CF-8AD5-C99FA8C92A97}">
-          <x14:formula1>
-            <xm:f>dont_touch!$C$2:$C$251</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J251</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEB25465-49D9-4200-914A-67B26D7EA97D}">
           <x14:formula1>
             <xm:f>dont_touch!$J$1:$J$52</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K251</xm:sqref>
+          <xm:sqref>M2:M251</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA2D07A2-ABA5-4AE3-BC49-82DDDB511260}">
+          <x14:formula1>
+            <xm:f>dont_touch!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I251</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{652AC566-59B1-41D7-9D5C-3FEDD25009DC}">
+          <x14:formula1>
+            <xm:f>dont_touch!$H$1:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K250</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2002,10 +4025,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2017,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4289,284 +6312,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="I1:J52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
